--- a/Internal Materials Fitting Issue Log (Construction Issue).xlsx
+++ b/Internal Materials Fitting Issue Log (Construction Issue).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\shadab\JAFURAPHASEII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B851A3-FA08-4F33-9A8C-B858FFC7EDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A11B34-F585-4DCE-B7D6-B34BEB82F79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01214435-74F5-40DF-8F81-020807ECED6C}"/>
   </bookViews>
@@ -275,8 +275,8 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -710,7 +710,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -738,7 +738,52 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,51 +796,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,8 +839,8 @@
       <sheetName val="Pivot"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="M1">
@@ -1692,7 +1692,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1997,14 +1997,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A11C68C-9BD9-4C94-86AE-93726FE48692}">
   <dimension ref="A1:T325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" style="77" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" style="69" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="57" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" style="1" customWidth="1"/>
@@ -2025,7 +2025,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="75"/>
+      <c r="A1" s="67"/>
       <c r="B1" s="61" t="s">
         <v>18</v>
       </c>
@@ -2044,43 +2044,43 @@
       <c r="O1" s="66"/>
       <c r="P1" s="63"/>
       <c r="Q1" s="63"/>
-      <c r="R1" s="80"/>
+      <c r="R1" s="72"/>
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="80" t="s">
         <v>45</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -2095,26 +2095,26 @@
       <c r="R2" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="77" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
       <c r="M3" s="11" t="s">
         <v>2</v>
       </c>
@@ -2131,8 +2131,8 @@
         <v>17</v>
       </c>
       <c r="R3" s="82"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="68"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="83"/>
     </row>
     <row r="4" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
@@ -2156,8 +2156,8 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A5" s="70" t="str">
+        <f t="shared" ref="A5:A36" si="0">CONCATENATE(E:E,"-",H:H)</f>
         <v>A863-2_SB_LPC-24311-099-M280156151</v>
       </c>
       <c r="B5" s="19">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="71" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="23">
@@ -2209,8 +2209,8 @@
       <c r="T5" s="19"/>
     </row>
     <row r="6" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A6" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-2_SB_LPC-24311-099-M230515170</v>
       </c>
       <c r="B6" s="19">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="79">
+      <c r="K6" s="71">
         <v>0.625</v>
       </c>
       <c r="L6" s="23">
@@ -2262,8 +2262,8 @@
       <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A7" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-2_SB_LPC-24311-099-M212915447</v>
       </c>
       <c r="B7" s="19">
@@ -2291,7 +2291,7 @@
       <c r="J7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="71" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="23"/>
@@ -2315,8 +2315,8 @@
       <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A8" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-2_SB_N-24302-099-M264052300</v>
       </c>
       <c r="B8" s="19">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="71" t="s">
         <v>41</v>
       </c>
       <c r="L8" s="23"/>
@@ -2366,8 +2366,8 @@
       <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A9" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-2_SB_N-24302-099-M230578304</v>
       </c>
       <c r="B9" s="19">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="79">
+      <c r="K9" s="71">
         <v>0.625</v>
       </c>
       <c r="L9" s="23">
@@ -2419,8 +2419,8 @@
       <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A10" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-2_SB_N-24302-099-M238710449</v>
       </c>
       <c r="B10" s="19">
@@ -2450,7 +2450,7 @@
       <c r="J10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="71" t="s">
         <v>41</v>
       </c>
       <c r="L10" s="23"/>
@@ -2474,8 +2474,8 @@
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A11" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-2_SB_N-24312-099-M264052297</v>
       </c>
       <c r="B11" s="19">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="71" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="23"/>
@@ -2525,8 +2525,8 @@
       <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A12" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-2_SB_N-24312-099-M230515170</v>
       </c>
       <c r="B12" s="19">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="79">
+      <c r="K12" s="71">
         <v>0.625</v>
       </c>
       <c r="L12" s="23">
@@ -2578,8 +2578,8 @@
       <c r="T12" s="19"/>
     </row>
     <row r="13" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A13" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-2_SB_N-24312-099-M238710447</v>
       </c>
       <c r="B13" s="19">
@@ -2609,7 +2609,7 @@
       <c r="J13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="71" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="23"/>
@@ -2633,8 +2633,8 @@
       <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A14" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-2_SB_PA-24293-099-M264052297</v>
       </c>
       <c r="B14" s="19">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="79" t="s">
+      <c r="K14" s="71" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="23"/>
@@ -2684,8 +2684,8 @@
       <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A15" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-2_SB_PA-24293-099-M230515170</v>
       </c>
       <c r="B15" s="19">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="79">
+      <c r="K15" s="71">
         <v>0.625</v>
       </c>
       <c r="L15" s="23">
@@ -2737,8 +2737,8 @@
       <c r="T15" s="19"/>
     </row>
     <row r="16" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A16" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-2_SB_PA-24293-099-M238710447</v>
       </c>
       <c r="B16" s="19">
@@ -2768,7 +2768,7 @@
       <c r="J16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="79" t="s">
+      <c r="K16" s="71" t="s">
         <v>40</v>
       </c>
       <c r="L16" s="23"/>
@@ -2792,8 +2792,8 @@
       <c r="T16" s="19"/>
     </row>
     <row r="17" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A17" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-3B_SB_N-25075-099-M264052297</v>
       </c>
       <c r="B17" s="19">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="79" t="s">
+      <c r="K17" s="71" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="22"/>
@@ -2843,8 +2843,8 @@
       <c r="T17" s="19"/>
     </row>
     <row r="18" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A18" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-3B_SB_N-25075-099-M230515170</v>
       </c>
       <c r="B18" s="19">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="79">
+      <c r="K18" s="71">
         <v>0.625</v>
       </c>
       <c r="L18" s="23">
@@ -2896,8 +2896,8 @@
       <c r="T18" s="19"/>
     </row>
     <row r="19" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A19" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-3B_SB_N-25075-099-M238710447</v>
       </c>
       <c r="B19" s="19">
@@ -2927,7 +2927,7 @@
       <c r="J19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="79" t="s">
+      <c r="K19" s="71" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="23"/>
@@ -2951,8 +2951,8 @@
       <c r="T19" s="19"/>
     </row>
     <row r="20" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A20" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-3B_SB_PA-24002-099-M264052297</v>
       </c>
       <c r="B20" s="19">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="79" t="s">
+      <c r="K20" s="71" t="s">
         <v>40</v>
       </c>
       <c r="L20" s="23"/>
@@ -3002,8 +3002,8 @@
       <c r="T20" s="19"/>
     </row>
     <row r="21" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A21" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-3B_SB_PA-24002-099-M230578304</v>
       </c>
       <c r="B21" s="19">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="79">
+      <c r="K21" s="71">
         <v>0.625</v>
       </c>
       <c r="L21" s="23">
@@ -3055,8 +3055,8 @@
       <c r="T21" s="19"/>
     </row>
     <row r="22" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A22" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-3B_SB_PA-24002-099-M230515170</v>
       </c>
       <c r="B22" s="19">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="19"/>
-      <c r="K22" s="79">
+      <c r="K22" s="71">
         <v>0.625</v>
       </c>
       <c r="L22" s="23">
@@ -3108,8 +3108,8 @@
       <c r="T22" s="19"/>
     </row>
     <row r="23" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A23" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A863-3B_SB_PA-24002-099-M238710447</v>
       </c>
       <c r="B23" s="19">
@@ -3155,7 +3155,7 @@
         <v>43</v>
       </c>
       <c r="Q23" s="22"/>
-      <c r="R23" s="83" t="s">
+      <c r="R23" s="73" t="s">
         <v>57</v>
       </c>
       <c r="S23" s="22" t="s">
@@ -3164,8 +3164,8 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A24" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A870-1_SB_LPS-24259-099-M280156153</v>
       </c>
       <c r="B24" s="19">
@@ -3180,7 +3180,7 @@
       <c r="E24" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="85" t="s">
+      <c r="F24" s="75" t="s">
         <v>49</v>
       </c>
       <c r="G24" s="19" t="s">
@@ -3206,7 +3206,7 @@
         <v>43</v>
       </c>
       <c r="Q24" s="22"/>
-      <c r="R24" s="83" t="s">
+      <c r="R24" s="73" t="s">
         <v>57</v>
       </c>
       <c r="S24" s="22" t="s">
@@ -3215,8 +3215,8 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A25" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A870-1_SB_LPS-24259-099-M230578304</v>
       </c>
       <c r="B25" s="19">
@@ -3231,7 +3231,7 @@
       <c r="E25" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="85" t="s">
+      <c r="F25" s="75" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="19" t="s">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="19"/>
-      <c r="K25" s="79">
+      <c r="K25" s="71">
         <v>0.625</v>
       </c>
       <c r="L25" s="23">
@@ -3259,7 +3259,7 @@
         <v>43</v>
       </c>
       <c r="Q25" s="22"/>
-      <c r="R25" s="83" t="s">
+      <c r="R25" s="73" t="s">
         <v>57</v>
       </c>
       <c r="S25" s="22" t="s">
@@ -3268,8 +3268,8 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A26" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>A870-1_SB_LPS-24259-099-M367335618</v>
       </c>
       <c r="B26" s="19">
@@ -3284,7 +3284,7 @@
       <c r="E26" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="F26" s="75" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="19" t="s">
@@ -3300,7 +3300,7 @@
         <f>VLOOKUP(A26,'[1]Valves Materials Bookeed '!$A:$Q,17,0)</f>
         <v>CS</v>
       </c>
-      <c r="K26" s="79" t="s">
+      <c r="K26" s="71" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="23"/>
@@ -3315,7 +3315,7 @@
         <v>43</v>
       </c>
       <c r="Q26" s="22"/>
-      <c r="R26" s="83" t="s">
+      <c r="R26" s="73" t="s">
         <v>57</v>
       </c>
       <c r="S26" s="22" t="s">
@@ -3324,8 +3324,8 @@
       <c r="T26" s="19"/>
     </row>
     <row r="27" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A27" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>S870-1_SB_LPS-24262-099-M238840827</v>
       </c>
       <c r="B27" s="19">
@@ -3340,7 +3340,7 @@
       <c r="E27" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="86" t="s">
+      <c r="F27" s="76" t="s">
         <v>50</v>
       </c>
       <c r="G27" s="19" t="s">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="19"/>
-      <c r="K27" s="79" t="s">
+      <c r="K27" s="71" t="s">
         <v>66</v>
       </c>
       <c r="L27" s="23"/>
@@ -3366,7 +3366,7 @@
         <v>43</v>
       </c>
       <c r="Q27" s="22"/>
-      <c r="R27" s="83" t="s">
+      <c r="R27" s="73" t="s">
         <v>57</v>
       </c>
       <c r="S27" s="22" t="s">
@@ -3375,8 +3375,8 @@
       <c r="T27" s="19"/>
     </row>
     <row r="28" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A28" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>S870-1_SB_LPS-24262-099-M22989532</v>
       </c>
       <c r="B28" s="19">
@@ -3391,7 +3391,7 @@
       <c r="E28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="86" t="s">
+      <c r="F28" s="76" t="s">
         <v>50</v>
       </c>
       <c r="G28" s="19" t="s">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="79" t="s">
+      <c r="K28" s="71" t="s">
         <v>66</v>
       </c>
       <c r="L28" s="23"/>
@@ -3417,7 +3417,7 @@
         <v>43</v>
       </c>
       <c r="Q28" s="22"/>
-      <c r="R28" s="83" t="s">
+      <c r="R28" s="73" t="s">
         <v>57</v>
       </c>
       <c r="S28" s="22" t="s">
@@ -3426,8 +3426,8 @@
       <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A29" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>S870-1_SB_LPS-24262-099-M230515170</v>
       </c>
       <c r="B29" s="19">
@@ -3442,7 +3442,7 @@
       <c r="E29" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="86" t="s">
+      <c r="F29" s="76" t="s">
         <v>50</v>
       </c>
       <c r="G29" s="19" t="s">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="19"/>
-      <c r="K29" s="79">
+      <c r="K29" s="71">
         <v>0.625</v>
       </c>
       <c r="L29" s="23">
@@ -3470,7 +3470,7 @@
         <v>43</v>
       </c>
       <c r="Q29" s="22"/>
-      <c r="R29" s="83" t="s">
+      <c r="R29" s="73" t="s">
         <v>57</v>
       </c>
       <c r="S29" s="22" t="s">
@@ -3479,8 +3479,8 @@
       <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A30" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>S870-1_SB_LPS-24262-099-M367335617</v>
       </c>
       <c r="B30" s="19">
@@ -3495,7 +3495,7 @@
       <c r="E30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="86" t="s">
+      <c r="F30" s="76" t="s">
         <v>50</v>
       </c>
       <c r="G30" s="29" t="s">
@@ -3511,7 +3511,7 @@
         <f>VLOOKUP(A30,'[1]Valves Materials Bookeed '!$A:$Q,17,0)</f>
         <v>CS</v>
       </c>
-      <c r="K30" s="79" t="s">
+      <c r="K30" s="71" t="s">
         <v>40</v>
       </c>
       <c r="L30" s="32"/>
@@ -3526,7 +3526,7 @@
         <v>43</v>
       </c>
       <c r="Q30" s="31"/>
-      <c r="R30" s="83" t="s">
+      <c r="R30" s="73" t="s">
         <v>57</v>
       </c>
       <c r="S30" s="22" t="s">
@@ -3535,8 +3535,8 @@
       <c r="T30" s="29"/>
     </row>
     <row r="31" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A31" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>S870-1_SB_LPS-24262-099-M280156151</v>
       </c>
       <c r="B31" s="19">
@@ -3551,7 +3551,7 @@
       <c r="E31" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="86" t="s">
+      <c r="F31" s="76" t="s">
         <v>50</v>
       </c>
       <c r="G31" s="29" t="s">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="19"/>
-      <c r="K31" s="79" t="s">
+      <c r="K31" s="71" t="s">
         <v>40</v>
       </c>
       <c r="L31" s="23"/>
@@ -3577,7 +3577,7 @@
         <v>43</v>
       </c>
       <c r="Q31" s="22"/>
-      <c r="R31" s="83" t="s">
+      <c r="R31" s="73" t="s">
         <v>57</v>
       </c>
       <c r="S31" s="22" t="s">
@@ -3586,8 +3586,8 @@
       <c r="T31" s="19"/>
     </row>
     <row r="32" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A32" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="B32" s="19">
@@ -3608,13 +3608,13 @@
       <c r="O32" s="34"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="22"/>
-      <c r="R32" s="84"/>
+      <c r="R32" s="74"/>
       <c r="S32" s="31"/>
       <c r="T32" s="19"/>
     </row>
     <row r="33" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A33" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="B33" s="19">
@@ -3635,13 +3635,13 @@
       <c r="O33" s="34"/>
       <c r="P33" s="19"/>
       <c r="Q33" s="22"/>
-      <c r="R33" s="84"/>
+      <c r="R33" s="74"/>
       <c r="S33" s="31"/>
       <c r="T33" s="19"/>
     </row>
     <row r="34" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A34" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="B34" s="19">
@@ -3662,13 +3662,13 @@
       <c r="O34" s="34"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="22"/>
-      <c r="R34" s="84"/>
+      <c r="R34" s="74"/>
       <c r="S34" s="31"/>
       <c r="T34" s="19"/>
     </row>
     <row r="35" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A35" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="B35" s="19">
@@ -3689,13 +3689,13 @@
       <c r="O35" s="34"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="22"/>
-      <c r="R35" s="84"/>
+      <c r="R35" s="74"/>
       <c r="S35" s="31"/>
       <c r="T35" s="19"/>
     </row>
     <row r="36" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A36" s="70" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="B36" s="19">
@@ -3716,13 +3716,13 @@
       <c r="O36" s="34"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="22"/>
-      <c r="R36" s="84"/>
+      <c r="R36" s="74"/>
       <c r="S36" s="31"/>
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A37" s="70" t="str">
+        <f t="shared" ref="A37:A69" si="1">CONCATENATE(E:E,"-",H:H)</f>
         <v>-</v>
       </c>
       <c r="B37" s="19">
@@ -3743,13 +3743,13 @@
       <c r="O37" s="34"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="22"/>
-      <c r="R37" s="84"/>
+      <c r="R37" s="74"/>
       <c r="S37" s="31"/>
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A38" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B38" s="19">
@@ -3770,13 +3770,13 @@
       <c r="O38" s="34"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="22"/>
-      <c r="R38" s="84"/>
+      <c r="R38" s="74"/>
       <c r="S38" s="31"/>
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A39" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B39" s="19">
@@ -3797,13 +3797,13 @@
       <c r="O39" s="34"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="22"/>
-      <c r="R39" s="84"/>
+      <c r="R39" s="74"/>
       <c r="S39" s="31"/>
       <c r="T39" s="19"/>
     </row>
     <row r="40" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A40" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B40" s="19">
@@ -3824,13 +3824,13 @@
       <c r="O40" s="34"/>
       <c r="P40" s="19"/>
       <c r="Q40" s="22"/>
-      <c r="R40" s="84"/>
+      <c r="R40" s="74"/>
       <c r="S40" s="31"/>
       <c r="T40" s="19"/>
     </row>
     <row r="41" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A41" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B41" s="19">
@@ -3851,13 +3851,13 @@
       <c r="O41" s="34"/>
       <c r="P41" s="19"/>
       <c r="Q41" s="22"/>
-      <c r="R41" s="84"/>
+      <c r="R41" s="74"/>
       <c r="S41" s="31"/>
       <c r="T41" s="19"/>
     </row>
     <row r="42" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A42" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B42" s="19">
@@ -3878,13 +3878,13 @@
       <c r="O42" s="34"/>
       <c r="P42" s="19"/>
       <c r="Q42" s="22"/>
-      <c r="R42" s="84"/>
+      <c r="R42" s="74"/>
       <c r="S42" s="31"/>
       <c r="T42" s="19"/>
     </row>
     <row r="43" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A43" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B43" s="19">
@@ -3905,13 +3905,13 @@
       <c r="O43" s="34"/>
       <c r="P43" s="19"/>
       <c r="Q43" s="22"/>
-      <c r="R43" s="84"/>
+      <c r="R43" s="74"/>
       <c r="S43" s="31"/>
       <c r="T43" s="19"/>
     </row>
     <row r="44" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A44" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B44" s="19">
@@ -3932,13 +3932,13 @@
       <c r="O44" s="34"/>
       <c r="P44" s="19"/>
       <c r="Q44" s="22"/>
-      <c r="R44" s="84"/>
+      <c r="R44" s="74"/>
       <c r="S44" s="31"/>
       <c r="T44" s="37"/>
     </row>
     <row r="45" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A45" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B45" s="19">
@@ -3959,13 +3959,13 @@
       <c r="O45" s="34"/>
       <c r="P45" s="19"/>
       <c r="Q45" s="22"/>
-      <c r="R45" s="84"/>
+      <c r="R45" s="74"/>
       <c r="S45" s="31"/>
       <c r="T45" s="38"/>
     </row>
     <row r="46" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A46" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B46" s="19">
@@ -3986,13 +3986,13 @@
       <c r="O46" s="34"/>
       <c r="P46" s="19"/>
       <c r="Q46" s="22"/>
-      <c r="R46" s="84"/>
+      <c r="R46" s="74"/>
       <c r="S46" s="31"/>
       <c r="T46" s="38"/>
     </row>
     <row r="47" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A47" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B47" s="19"/>
@@ -4011,13 +4011,13 @@
       <c r="O47" s="34"/>
       <c r="P47" s="19"/>
       <c r="Q47" s="22"/>
-      <c r="R47" s="84"/>
+      <c r="R47" s="74"/>
       <c r="S47" s="31"/>
       <c r="T47" s="38"/>
     </row>
     <row r="48" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A48" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B48" s="19"/>
@@ -4036,13 +4036,13 @@
       <c r="O48" s="34"/>
       <c r="P48" s="19"/>
       <c r="Q48" s="22"/>
-      <c r="R48" s="84"/>
+      <c r="R48" s="74"/>
       <c r="S48" s="31"/>
       <c r="T48" s="38"/>
     </row>
     <row r="49" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A49" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B49" s="19"/>
@@ -4061,13 +4061,13 @@
       <c r="O49" s="34"/>
       <c r="P49" s="19"/>
       <c r="Q49" s="22"/>
-      <c r="R49" s="84"/>
+      <c r="R49" s="74"/>
       <c r="S49" s="31"/>
       <c r="T49" s="38"/>
     </row>
     <row r="50" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A50" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B50" s="19"/>
@@ -4086,13 +4086,13 @@
       <c r="O50" s="34"/>
       <c r="P50" s="19"/>
       <c r="Q50" s="22"/>
-      <c r="R50" s="84"/>
+      <c r="R50" s="74"/>
       <c r="S50" s="19"/>
       <c r="T50" s="38"/>
     </row>
     <row r="51" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A51" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B51" s="19"/>
@@ -4111,13 +4111,13 @@
       <c r="O51" s="34"/>
       <c r="P51" s="19"/>
       <c r="Q51" s="22"/>
-      <c r="R51" s="84"/>
+      <c r="R51" s="74"/>
       <c r="S51" s="19"/>
       <c r="T51" s="38"/>
     </row>
     <row r="52" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A52" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B52" s="19"/>
@@ -4136,13 +4136,13 @@
       <c r="O52" s="34"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="22"/>
-      <c r="R52" s="84"/>
+      <c r="R52" s="74"/>
       <c r="S52" s="19"/>
       <c r="T52" s="38"/>
     </row>
     <row r="53" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A53" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B53" s="19"/>
@@ -4166,8 +4166,8 @@
       <c r="T53" s="19"/>
     </row>
     <row r="54" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A54" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B54" s="19"/>
@@ -4191,8 +4191,8 @@
       <c r="T54" s="19"/>
     </row>
     <row r="55" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A55" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B55" s="19"/>
@@ -4216,8 +4216,8 @@
       <c r="T55" s="38"/>
     </row>
     <row r="56" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A56" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B56" s="19"/>
@@ -4241,8 +4241,8 @@
       <c r="T56" s="38"/>
     </row>
     <row r="57" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A57" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B57" s="19"/>
@@ -4266,8 +4266,8 @@
       <c r="T57" s="38"/>
     </row>
     <row r="58" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A58" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B58" s="19"/>
@@ -4291,8 +4291,8 @@
       <c r="T58" s="19"/>
     </row>
     <row r="59" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A59" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B59" s="19"/>
@@ -4316,8 +4316,8 @@
       <c r="T59" s="19"/>
     </row>
     <row r="60" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A60" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B60" s="19"/>
@@ -4341,8 +4341,8 @@
       <c r="T60" s="19"/>
     </row>
     <row r="61" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A61" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B61" s="19"/>
@@ -4366,8 +4366,8 @@
       <c r="T61" s="19"/>
     </row>
     <row r="62" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A62" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B62" s="19"/>
@@ -4391,8 +4391,8 @@
       <c r="T62" s="19"/>
     </row>
     <row r="63" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A63" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B63" s="19"/>
@@ -4416,8 +4416,8 @@
       <c r="T63" s="19"/>
     </row>
     <row r="64" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A64" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B64" s="19"/>
@@ -4441,8 +4441,8 @@
       <c r="T64" s="19"/>
     </row>
     <row r="65" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A65" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B65" s="19"/>
@@ -4466,8 +4466,8 @@
       <c r="T65" s="19"/>
     </row>
     <row r="66" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A66" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B66" s="19"/>
@@ -4491,8 +4491,8 @@
       <c r="T66" s="19"/>
     </row>
     <row r="67" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A67" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B67" s="19"/>
@@ -4516,8 +4516,8 @@
       <c r="T67" s="19"/>
     </row>
     <row r="68" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A68" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B68" s="19"/>
@@ -4541,8 +4541,8 @@
       <c r="T68" s="19"/>
     </row>
     <row r="69" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="78" t="str">
-        <f>CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A69" s="70" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="B69" s="19"/>
@@ -4566,8 +4566,8 @@
       <c r="T69" s="19"/>
     </row>
     <row r="70" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="78" t="str">
-        <f t="shared" ref="A70:A133" si="0">CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A70" s="70" t="str">
+        <f t="shared" ref="A70:A133" si="2">CONCATENATE(E:E,"-",H:H)</f>
         <v>-</v>
       </c>
       <c r="B70" s="19"/>
@@ -4591,8 +4591,8 @@
       <c r="T70" s="19"/>
     </row>
     <row r="71" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A71" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B71" s="19"/>
@@ -4616,8 +4616,8 @@
       <c r="T71" s="19"/>
     </row>
     <row r="72" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A72" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B72" s="19"/>
@@ -4641,8 +4641,8 @@
       <c r="T72" s="19"/>
     </row>
     <row r="73" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A73" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B73" s="19"/>
@@ -4666,8 +4666,8 @@
       <c r="T73" s="19"/>
     </row>
     <row r="74" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A74" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B74" s="19"/>
@@ -4691,8 +4691,8 @@
       <c r="T74" s="19"/>
     </row>
     <row r="75" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A75" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B75" s="19"/>
@@ -4716,8 +4716,8 @@
       <c r="T75" s="19"/>
     </row>
     <row r="76" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A76" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B76" s="19"/>
@@ -4741,8 +4741,8 @@
       <c r="T76" s="19"/>
     </row>
     <row r="77" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A77" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B77" s="19"/>
@@ -4766,8 +4766,8 @@
       <c r="T77" s="19"/>
     </row>
     <row r="78" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A78" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B78" s="19"/>
@@ -4791,8 +4791,8 @@
       <c r="T78" s="19"/>
     </row>
     <row r="79" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A79" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B79" s="19"/>
@@ -4816,8 +4816,8 @@
       <c r="T79" s="19"/>
     </row>
     <row r="80" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A80" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B80" s="19"/>
@@ -4841,8 +4841,8 @@
       <c r="T80" s="19"/>
     </row>
     <row r="81" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A81" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B81" s="19"/>
@@ -4866,8 +4866,8 @@
       <c r="T81" s="19"/>
     </row>
     <row r="82" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A82" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B82" s="19"/>
@@ -4891,8 +4891,8 @@
       <c r="T82" s="19"/>
     </row>
     <row r="83" spans="1:20" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A83" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B83" s="19"/>
@@ -4916,8 +4916,8 @@
       <c r="T83" s="22"/>
     </row>
     <row r="84" spans="1:20" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A84" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B84" s="19"/>
@@ -4941,8 +4941,8 @@
       <c r="T84" s="22"/>
     </row>
     <row r="85" spans="1:20" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A85" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B85" s="19"/>
@@ -4966,8 +4966,8 @@
       <c r="T85" s="22"/>
     </row>
     <row r="86" spans="1:20" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A86" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B86" s="19"/>
@@ -4991,8 +4991,8 @@
       <c r="T86" s="22"/>
     </row>
     <row r="87" spans="1:20" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A87" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B87" s="19"/>
@@ -5016,8 +5016,8 @@
       <c r="T87" s="22"/>
     </row>
     <row r="88" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A88" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B88" s="19"/>
@@ -5041,8 +5041,8 @@
       <c r="T88" s="19"/>
     </row>
     <row r="89" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A89" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B89" s="19"/>
@@ -5066,8 +5066,8 @@
       <c r="T89" s="19"/>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A90" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B90" s="19"/>
@@ -5091,8 +5091,8 @@
       <c r="T90" s="19"/>
     </row>
     <row r="91" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A91" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B91" s="19"/>
@@ -5116,8 +5116,8 @@
       <c r="T91" s="19"/>
     </row>
     <row r="92" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A92" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B92" s="19"/>
@@ -5141,8 +5141,8 @@
       <c r="T92" s="19"/>
     </row>
     <row r="93" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A93" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B93" s="19"/>
@@ -5166,8 +5166,8 @@
       <c r="T93" s="19"/>
     </row>
     <row r="94" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A94" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B94" s="19"/>
@@ -5191,8 +5191,8 @@
       <c r="T94" s="19"/>
     </row>
     <row r="95" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A95" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B95" s="19"/>
@@ -5216,8 +5216,8 @@
       <c r="T95" s="19"/>
     </row>
     <row r="96" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A96" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B96" s="19"/>
@@ -5241,8 +5241,8 @@
       <c r="T96" s="19"/>
     </row>
     <row r="97" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A97" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B97" s="19"/>
@@ -5266,8 +5266,8 @@
       <c r="T97" s="19"/>
     </row>
     <row r="98" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A98" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B98" s="19"/>
@@ -5291,8 +5291,8 @@
       <c r="T98" s="19"/>
     </row>
     <row r="99" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A99" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B99" s="19"/>
@@ -5316,8 +5316,8 @@
       <c r="T99" s="19"/>
     </row>
     <row r="100" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A100" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B100" s="19"/>
@@ -5341,8 +5341,8 @@
       <c r="T100" s="19"/>
     </row>
     <row r="101" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A101" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B101" s="19"/>
@@ -5366,8 +5366,8 @@
       <c r="T101" s="19"/>
     </row>
     <row r="102" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A102" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B102" s="19"/>
@@ -5391,8 +5391,8 @@
       <c r="T102" s="19"/>
     </row>
     <row r="103" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A103" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B103" s="19"/>
@@ -5416,8 +5416,8 @@
       <c r="T103" s="19"/>
     </row>
     <row r="104" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A104" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B104" s="19"/>
@@ -5441,8 +5441,8 @@
       <c r="T104" s="19"/>
     </row>
     <row r="105" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A105" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B105" s="19"/>
@@ -5466,8 +5466,8 @@
       <c r="T105" s="19"/>
     </row>
     <row r="106" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A106" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B106" s="19"/>
@@ -5491,8 +5491,8 @@
       <c r="T106" s="19"/>
     </row>
     <row r="107" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A107" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B107" s="19"/>
@@ -5516,8 +5516,8 @@
       <c r="T107" s="19"/>
     </row>
     <row r="108" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A108" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B108" s="19"/>
@@ -5541,8 +5541,8 @@
       <c r="T108" s="19"/>
     </row>
     <row r="109" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A109" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B109" s="19"/>
@@ -5566,8 +5566,8 @@
       <c r="T109" s="19"/>
     </row>
     <row r="110" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A110" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B110" s="19"/>
@@ -5591,8 +5591,8 @@
       <c r="T110" s="19"/>
     </row>
     <row r="111" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A111" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B111" s="19"/>
@@ -5616,8 +5616,8 @@
       <c r="T111" s="19"/>
     </row>
     <row r="112" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A112" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B112" s="19"/>
@@ -5641,8 +5641,8 @@
       <c r="T112" s="19"/>
     </row>
     <row r="113" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A113" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B113" s="19"/>
@@ -5666,8 +5666,8 @@
       <c r="T113" s="19"/>
     </row>
     <row r="114" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A114" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B114" s="19"/>
@@ -5691,8 +5691,8 @@
       <c r="T114" s="19"/>
     </row>
     <row r="115" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A115" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B115" s="19"/>
@@ -5716,8 +5716,8 @@
       <c r="T115" s="19"/>
     </row>
     <row r="116" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A116" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B116" s="19"/>
@@ -5741,8 +5741,8 @@
       <c r="T116" s="19"/>
     </row>
     <row r="117" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A117" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B117" s="19"/>
@@ -5766,8 +5766,8 @@
       <c r="T117" s="19"/>
     </row>
     <row r="118" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A118" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B118" s="19"/>
@@ -5791,8 +5791,8 @@
       <c r="T118" s="19"/>
     </row>
     <row r="119" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A119" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B119" s="19"/>
@@ -5816,8 +5816,8 @@
       <c r="T119" s="19"/>
     </row>
     <row r="120" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A120" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B120" s="19"/>
@@ -5841,8 +5841,8 @@
       <c r="T120" s="19"/>
     </row>
     <row r="121" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A121" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B121" s="19"/>
@@ -5866,8 +5866,8 @@
       <c r="T121" s="19"/>
     </row>
     <row r="122" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A122" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B122" s="19"/>
@@ -5891,8 +5891,8 @@
       <c r="T122" s="19"/>
     </row>
     <row r="123" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A123" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B123" s="19"/>
@@ -5916,8 +5916,8 @@
       <c r="T123" s="19"/>
     </row>
     <row r="124" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A124" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B124" s="19"/>
@@ -5941,8 +5941,8 @@
       <c r="T124" s="19"/>
     </row>
     <row r="125" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A125" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B125" s="19"/>
@@ -5966,8 +5966,8 @@
       <c r="T125" s="19"/>
     </row>
     <row r="126" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A126" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B126" s="19"/>
@@ -5991,8 +5991,8 @@
       <c r="T126" s="19"/>
     </row>
     <row r="127" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A127" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B127" s="19"/>
@@ -6016,8 +6016,8 @@
       <c r="T127" s="19"/>
     </row>
     <row r="128" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A128" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B128" s="19"/>
@@ -6041,8 +6041,8 @@
       <c r="T128" s="19"/>
     </row>
     <row r="129" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A129" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B129" s="19"/>
@@ -6066,8 +6066,8 @@
       <c r="T129" s="19"/>
     </row>
     <row r="130" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A130" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B130" s="19"/>
@@ -6091,8 +6091,8 @@
       <c r="T130" s="19"/>
     </row>
     <row r="131" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A131" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B131" s="19"/>
@@ -6116,8 +6116,8 @@
       <c r="T131" s="19"/>
     </row>
     <row r="132" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A132" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B132" s="19"/>
@@ -6141,8 +6141,8 @@
       <c r="T132" s="19"/>
     </row>
     <row r="133" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="A133" s="70" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="B133" s="19"/>
@@ -6166,8 +6166,8 @@
       <c r="T133" s="19"/>
     </row>
     <row r="134" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="78" t="str">
-        <f t="shared" ref="A134:A174" si="1">CONCATENATE(E:E,"-",H:H)</f>
+      <c r="A134" s="70" t="str">
+        <f t="shared" ref="A134:A174" si="3">CONCATENATE(E:E,"-",H:H)</f>
         <v>-</v>
       </c>
       <c r="B134" s="19"/>
@@ -6191,8 +6191,8 @@
       <c r="T134" s="19"/>
     </row>
     <row r="135" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A135" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B135" s="19"/>
@@ -6216,8 +6216,8 @@
       <c r="T135" s="19"/>
     </row>
     <row r="136" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A136" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B136" s="19"/>
@@ -6241,8 +6241,8 @@
       <c r="T136" s="19"/>
     </row>
     <row r="137" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A137" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B137" s="19"/>
@@ -6266,8 +6266,8 @@
       <c r="T137" s="19"/>
     </row>
     <row r="138" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A138" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B138" s="19"/>
@@ -6291,8 +6291,8 @@
       <c r="T138" s="19"/>
     </row>
     <row r="139" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A139" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B139" s="19"/>
@@ -6316,8 +6316,8 @@
       <c r="T139" s="19"/>
     </row>
     <row r="140" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A140" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B140" s="19"/>
@@ -6341,8 +6341,8 @@
       <c r="T140" s="19"/>
     </row>
     <row r="141" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A141" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B141" s="19"/>
@@ -6366,8 +6366,8 @@
       <c r="T141" s="19"/>
     </row>
     <row r="142" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A142" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B142" s="19"/>
@@ -6391,8 +6391,8 @@
       <c r="T142" s="19"/>
     </row>
     <row r="143" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A143" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B143" s="19"/>
@@ -6416,8 +6416,8 @@
       <c r="T143" s="19"/>
     </row>
     <row r="144" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A144" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B144" s="19"/>
@@ -6441,8 +6441,8 @@
       <c r="T144" s="19"/>
     </row>
     <row r="145" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A145" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B145" s="19"/>
@@ -6466,8 +6466,8 @@
       <c r="T145" s="19"/>
     </row>
     <row r="146" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A146" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B146" s="19"/>
@@ -6491,8 +6491,8 @@
       <c r="T146" s="19"/>
     </row>
     <row r="147" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A147" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B147" s="19"/>
@@ -6516,8 +6516,8 @@
       <c r="T147" s="19"/>
     </row>
     <row r="148" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A148" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B148" s="19"/>
@@ -6541,8 +6541,8 @@
       <c r="T148" s="19"/>
     </row>
     <row r="149" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A149" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B149" s="19"/>
@@ -6561,13 +6561,13 @@
       <c r="O149" s="41"/>
       <c r="P149" s="22"/>
       <c r="Q149" s="22"/>
-      <c r="R149" s="84"/>
+      <c r="R149" s="74"/>
       <c r="S149" s="22"/>
       <c r="T149" s="19"/>
     </row>
     <row r="150" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A150" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B150" s="19"/>
@@ -6586,13 +6586,13 @@
       <c r="O150" s="41"/>
       <c r="P150" s="22"/>
       <c r="Q150" s="22"/>
-      <c r="R150" s="84"/>
+      <c r="R150" s="74"/>
       <c r="S150" s="22"/>
       <c r="T150" s="19"/>
     </row>
     <row r="151" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A151" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B151" s="19"/>
@@ -6611,13 +6611,13 @@
       <c r="O151" s="41"/>
       <c r="P151" s="22"/>
       <c r="Q151" s="22"/>
-      <c r="R151" s="84"/>
+      <c r="R151" s="74"/>
       <c r="S151" s="22"/>
       <c r="T151" s="19"/>
     </row>
     <row r="152" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A152" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B152" s="19"/>
@@ -6636,13 +6636,13 @@
       <c r="O152" s="41"/>
       <c r="P152" s="22"/>
       <c r="Q152" s="22"/>
-      <c r="R152" s="84"/>
+      <c r="R152" s="74"/>
       <c r="S152" s="22"/>
       <c r="T152" s="19"/>
     </row>
     <row r="153" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A153" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B153" s="19"/>
@@ -6661,13 +6661,13 @@
       <c r="O153" s="41"/>
       <c r="P153" s="22"/>
       <c r="Q153" s="22"/>
-      <c r="R153" s="84"/>
+      <c r="R153" s="74"/>
       <c r="S153" s="22"/>
       <c r="T153" s="19"/>
     </row>
     <row r="154" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A154" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B154" s="19"/>
@@ -6686,13 +6686,13 @@
       <c r="O154" s="41"/>
       <c r="P154" s="22"/>
       <c r="Q154" s="22"/>
-      <c r="R154" s="84"/>
+      <c r="R154" s="74"/>
       <c r="S154" s="22"/>
       <c r="T154" s="19"/>
     </row>
     <row r="155" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A155" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B155" s="19"/>
@@ -6711,13 +6711,13 @@
       <c r="O155" s="41"/>
       <c r="P155" s="22"/>
       <c r="Q155" s="22"/>
-      <c r="R155" s="84"/>
+      <c r="R155" s="74"/>
       <c r="S155" s="22"/>
       <c r="T155" s="19"/>
     </row>
     <row r="156" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A156" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B156" s="19"/>
@@ -6736,13 +6736,13 @@
       <c r="O156" s="41"/>
       <c r="P156" s="22"/>
       <c r="Q156" s="22"/>
-      <c r="R156" s="84"/>
+      <c r="R156" s="74"/>
       <c r="S156" s="22"/>
       <c r="T156" s="19"/>
     </row>
     <row r="157" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A157" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B157" s="19"/>
@@ -6766,8 +6766,8 @@
       <c r="T157" s="19"/>
     </row>
     <row r="158" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A158" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B158" s="19"/>
@@ -6791,8 +6791,8 @@
       <c r="T158" s="19"/>
     </row>
     <row r="159" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A159" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B159" s="19"/>
@@ -6816,8 +6816,8 @@
       <c r="T159" s="19"/>
     </row>
     <row r="160" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A160" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B160" s="19"/>
@@ -6841,8 +6841,8 @@
       <c r="T160" s="19"/>
     </row>
     <row r="161" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A161" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B161" s="19"/>
@@ -6866,8 +6866,8 @@
       <c r="T161" s="19"/>
     </row>
     <row r="162" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A162" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B162" s="19"/>
@@ -6891,8 +6891,8 @@
       <c r="T162" s="19"/>
     </row>
     <row r="163" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A163" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B163" s="19"/>
@@ -6916,8 +6916,8 @@
       <c r="T163" s="19"/>
     </row>
     <row r="164" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A164" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B164" s="19"/>
@@ -6941,8 +6941,8 @@
       <c r="T164" s="19"/>
     </row>
     <row r="165" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A165" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B165" s="19"/>
@@ -6966,8 +6966,8 @@
       <c r="T165" s="19"/>
     </row>
     <row r="166" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A166" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B166" s="19"/>
@@ -6991,8 +6991,8 @@
       <c r="T166" s="19"/>
     </row>
     <row r="167" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A167" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B167" s="19"/>
@@ -7016,8 +7016,8 @@
       <c r="T167" s="19"/>
     </row>
     <row r="168" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A168" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B168" s="19"/>
@@ -7041,8 +7041,8 @@
       <c r="T168" s="19"/>
     </row>
     <row r="169" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A169" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B169" s="19"/>
@@ -7066,8 +7066,8 @@
       <c r="T169" s="19"/>
     </row>
     <row r="170" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A170" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B170" s="19"/>
@@ -7091,8 +7091,8 @@
       <c r="T170" s="19"/>
     </row>
     <row r="171" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A171" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B171" s="19"/>
@@ -7116,8 +7116,8 @@
       <c r="T171" s="19"/>
     </row>
     <row r="172" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A172" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B172" s="19"/>
@@ -7141,8 +7141,8 @@
       <c r="T172" s="19"/>
     </row>
     <row r="173" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A173" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B173" s="19"/>
@@ -7166,8 +7166,8 @@
       <c r="T173" s="19"/>
     </row>
     <row r="174" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="A174" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="B174" s="19"/>
@@ -7191,7 +7191,7 @@
       <c r="T174" s="19"/>
     </row>
     <row r="175" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="78"/>
+      <c r="A175" s="70"/>
       <c r="B175" s="19"/>
       <c r="C175" s="26"/>
       <c r="D175" s="19"/>
@@ -7213,7 +7213,7 @@
       <c r="T175" s="19"/>
     </row>
     <row r="176" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="78"/>
+      <c r="A176" s="70"/>
       <c r="B176" s="19"/>
       <c r="C176" s="26"/>
       <c r="D176" s="19"/>
@@ -7235,7 +7235,7 @@
       <c r="T176" s="19"/>
     </row>
     <row r="177" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="78"/>
+      <c r="A177" s="70"/>
       <c r="B177" s="19"/>
       <c r="C177" s="26"/>
       <c r="D177" s="19"/>
@@ -7257,7 +7257,7 @@
       <c r="T177" s="19"/>
     </row>
     <row r="178" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="78"/>
+      <c r="A178" s="70"/>
       <c r="B178" s="19"/>
       <c r="C178" s="26"/>
       <c r="D178" s="19"/>
@@ -7279,7 +7279,7 @@
       <c r="T178" s="19"/>
     </row>
     <row r="179" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="78"/>
+      <c r="A179" s="70"/>
       <c r="B179" s="19"/>
       <c r="C179" s="26"/>
       <c r="D179" s="19"/>
@@ -7301,7 +7301,7 @@
       <c r="T179" s="19"/>
     </row>
     <row r="180" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="78"/>
+      <c r="A180" s="70"/>
       <c r="B180" s="19"/>
       <c r="C180" s="26"/>
       <c r="D180" s="19"/>
@@ -7323,7 +7323,7 @@
       <c r="T180" s="19"/>
     </row>
     <row r="181" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="78"/>
+      <c r="A181" s="70"/>
       <c r="B181" s="19"/>
       <c r="C181" s="26"/>
       <c r="D181" s="19"/>
@@ -7345,7 +7345,7 @@
       <c r="T181" s="19"/>
     </row>
     <row r="182" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="78"/>
+      <c r="A182" s="70"/>
       <c r="B182" s="19"/>
       <c r="C182" s="26"/>
       <c r="D182" s="19"/>
@@ -7367,7 +7367,7 @@
       <c r="T182" s="19"/>
     </row>
     <row r="183" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="78"/>
+      <c r="A183" s="70"/>
       <c r="B183" s="19"/>
       <c r="C183" s="26"/>
       <c r="D183" s="19"/>
@@ -7389,7 +7389,7 @@
       <c r="T183" s="19"/>
     </row>
     <row r="184" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="78"/>
+      <c r="A184" s="70"/>
       <c r="B184" s="19"/>
       <c r="C184" s="26"/>
       <c r="D184" s="19"/>
@@ -7411,7 +7411,7 @@
       <c r="T184" s="19"/>
     </row>
     <row r="185" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="78"/>
+      <c r="A185" s="70"/>
       <c r="B185" s="19"/>
       <c r="C185" s="26"/>
       <c r="D185" s="19"/>
@@ -7433,7 +7433,7 @@
       <c r="T185" s="19"/>
     </row>
     <row r="186" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="78"/>
+      <c r="A186" s="70"/>
       <c r="B186" s="19"/>
       <c r="C186" s="26"/>
       <c r="D186" s="19"/>
@@ -7455,7 +7455,7 @@
       <c r="T186" s="19"/>
     </row>
     <row r="187" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="78"/>
+      <c r="A187" s="70"/>
       <c r="B187" s="19"/>
       <c r="C187" s="26"/>
       <c r="D187" s="19"/>
@@ -7477,7 +7477,7 @@
       <c r="T187" s="19"/>
     </row>
     <row r="188" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="78"/>
+      <c r="A188" s="70"/>
       <c r="B188" s="19"/>
       <c r="C188" s="26"/>
       <c r="D188" s="19"/>
@@ -7499,7 +7499,7 @@
       <c r="T188" s="19"/>
     </row>
     <row r="189" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="78"/>
+      <c r="A189" s="70"/>
       <c r="B189" s="19"/>
       <c r="C189" s="26"/>
       <c r="D189" s="19"/>
@@ -7521,7 +7521,7 @@
       <c r="T189" s="19"/>
     </row>
     <row r="190" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="78"/>
+      <c r="A190" s="70"/>
       <c r="B190" s="19"/>
       <c r="C190" s="26"/>
       <c r="D190" s="19"/>
@@ -7543,7 +7543,7 @@
       <c r="T190" s="19"/>
     </row>
     <row r="191" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="78"/>
+      <c r="A191" s="70"/>
       <c r="B191" s="19"/>
       <c r="C191" s="26"/>
       <c r="D191" s="19"/>
@@ -7565,7 +7565,7 @@
       <c r="T191" s="19"/>
     </row>
     <row r="192" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="78"/>
+      <c r="A192" s="70"/>
       <c r="B192" s="19"/>
       <c r="C192" s="26"/>
       <c r="D192" s="19"/>
@@ -7587,7 +7587,7 @@
       <c r="T192" s="19"/>
     </row>
     <row r="193" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="78"/>
+      <c r="A193" s="70"/>
       <c r="B193" s="19"/>
       <c r="C193" s="26"/>
       <c r="D193" s="19"/>
@@ -7609,7 +7609,7 @@
       <c r="T193" s="19"/>
     </row>
     <row r="194" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="78"/>
+      <c r="A194" s="70"/>
       <c r="B194" s="19"/>
       <c r="C194" s="26"/>
       <c r="D194" s="19"/>
@@ -7631,7 +7631,7 @@
       <c r="T194" s="19"/>
     </row>
     <row r="195" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="78"/>
+      <c r="A195" s="70"/>
       <c r="B195" s="19"/>
       <c r="C195" s="26"/>
       <c r="D195" s="19"/>
@@ -7653,7 +7653,7 @@
       <c r="T195" s="19"/>
     </row>
     <row r="196" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="78"/>
+      <c r="A196" s="70"/>
       <c r="B196" s="19"/>
       <c r="C196" s="26"/>
       <c r="D196" s="19"/>
@@ -7675,7 +7675,7 @@
       <c r="T196" s="19"/>
     </row>
     <row r="197" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="78"/>
+      <c r="A197" s="70"/>
       <c r="B197" s="19"/>
       <c r="C197" s="26"/>
       <c r="D197" s="19"/>
@@ -7697,7 +7697,7 @@
       <c r="T197" s="19"/>
     </row>
     <row r="198" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="78"/>
+      <c r="A198" s="70"/>
       <c r="B198" s="19"/>
       <c r="C198" s="26"/>
       <c r="D198" s="19"/>
@@ -7719,7 +7719,7 @@
       <c r="T198" s="19"/>
     </row>
     <row r="199" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="78"/>
+      <c r="A199" s="70"/>
       <c r="B199" s="19"/>
       <c r="C199" s="26"/>
       <c r="D199" s="19"/>
@@ -7741,7 +7741,7 @@
       <c r="T199" s="19"/>
     </row>
     <row r="200" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="78"/>
+      <c r="A200" s="70"/>
       <c r="B200" s="19"/>
       <c r="C200" s="26"/>
       <c r="D200" s="19"/>
@@ -7763,7 +7763,7 @@
       <c r="T200" s="19"/>
     </row>
     <row r="201" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="78"/>
+      <c r="A201" s="70"/>
       <c r="B201" s="19"/>
       <c r="C201" s="26"/>
       <c r="D201" s="19"/>
@@ -7785,7 +7785,7 @@
       <c r="T201" s="19"/>
     </row>
     <row r="202" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="78"/>
+      <c r="A202" s="70"/>
       <c r="B202" s="19"/>
       <c r="C202" s="26"/>
       <c r="D202" s="19"/>
@@ -7807,7 +7807,7 @@
       <c r="T202" s="19"/>
     </row>
     <row r="203" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="78"/>
+      <c r="A203" s="70"/>
       <c r="B203" s="19"/>
       <c r="C203" s="26"/>
       <c r="D203" s="19"/>
@@ -7829,7 +7829,7 @@
       <c r="T203" s="19"/>
     </row>
     <row r="204" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="78"/>
+      <c r="A204" s="70"/>
       <c r="B204" s="19"/>
       <c r="C204" s="26"/>
       <c r="D204" s="19"/>
@@ -7851,7 +7851,7 @@
       <c r="T204" s="19"/>
     </row>
     <row r="205" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="78"/>
+      <c r="A205" s="70"/>
       <c r="B205" s="19"/>
       <c r="C205" s="26"/>
       <c r="D205" s="19"/>
@@ -7873,7 +7873,7 @@
       <c r="T205" s="19"/>
     </row>
     <row r="206" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="78"/>
+      <c r="A206" s="70"/>
       <c r="B206" s="19"/>
       <c r="C206" s="26"/>
       <c r="D206" s="19"/>
@@ -7895,7 +7895,7 @@
       <c r="T206" s="19"/>
     </row>
     <row r="207" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="78"/>
+      <c r="A207" s="70"/>
       <c r="B207" s="19"/>
       <c r="C207" s="26"/>
       <c r="D207" s="19"/>
@@ -7917,7 +7917,7 @@
       <c r="T207" s="19"/>
     </row>
     <row r="208" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="78"/>
+      <c r="A208" s="70"/>
       <c r="B208" s="19"/>
       <c r="C208" s="26"/>
       <c r="D208" s="19"/>
@@ -7939,7 +7939,7 @@
       <c r="T208" s="19"/>
     </row>
     <row r="209" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="78"/>
+      <c r="A209" s="70"/>
       <c r="B209" s="19"/>
       <c r="C209" s="26"/>
       <c r="D209" s="19"/>
@@ -7961,7 +7961,7 @@
       <c r="T209" s="19"/>
     </row>
     <row r="210" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="78"/>
+      <c r="A210" s="70"/>
       <c r="B210" s="19"/>
       <c r="C210" s="26"/>
       <c r="D210" s="19"/>
@@ -7983,7 +7983,7 @@
       <c r="T210" s="19"/>
     </row>
     <row r="211" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="78"/>
+      <c r="A211" s="70"/>
       <c r="B211" s="19"/>
       <c r="C211" s="26"/>
       <c r="D211" s="19"/>
@@ -8005,7 +8005,7 @@
       <c r="T211" s="19"/>
     </row>
     <row r="212" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="78"/>
+      <c r="A212" s="70"/>
       <c r="B212" s="19"/>
       <c r="C212" s="26"/>
       <c r="D212" s="19"/>
@@ -8027,7 +8027,7 @@
       <c r="T212" s="19"/>
     </row>
     <row r="213" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="78"/>
+      <c r="A213" s="70"/>
       <c r="B213" s="19"/>
       <c r="C213" s="26"/>
       <c r="D213" s="19"/>
@@ -8049,7 +8049,7 @@
       <c r="T213" s="19"/>
     </row>
     <row r="214" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="78"/>
+      <c r="A214" s="70"/>
       <c r="B214" s="19"/>
       <c r="C214" s="26"/>
       <c r="D214" s="19"/>
@@ -8071,7 +8071,7 @@
       <c r="T214" s="19"/>
     </row>
     <row r="215" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="78"/>
+      <c r="A215" s="70"/>
       <c r="B215" s="19"/>
       <c r="C215" s="26"/>
       <c r="D215" s="19"/>
@@ -8093,7 +8093,7 @@
       <c r="T215" s="19"/>
     </row>
     <row r="216" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="78"/>
+      <c r="A216" s="70"/>
       <c r="B216" s="19"/>
       <c r="C216" s="26"/>
       <c r="D216" s="19"/>
@@ -8115,7 +8115,7 @@
       <c r="T216" s="19"/>
     </row>
     <row r="217" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="78"/>
+      <c r="A217" s="70"/>
       <c r="B217" s="19"/>
       <c r="C217" s="26"/>
       <c r="D217" s="19"/>
@@ -8137,7 +8137,7 @@
       <c r="T217" s="19"/>
     </row>
     <row r="218" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="78"/>
+      <c r="A218" s="70"/>
       <c r="B218" s="19"/>
       <c r="C218" s="26"/>
       <c r="D218" s="19"/>
@@ -8159,7 +8159,7 @@
       <c r="T218" s="19"/>
     </row>
     <row r="219" spans="1:20" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="78"/>
+      <c r="A219" s="70"/>
       <c r="B219" s="19"/>
       <c r="C219" s="26"/>
       <c r="D219" s="19"/>
@@ -8181,7 +8181,7 @@
       <c r="T219" s="19"/>
     </row>
     <row r="220" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="78"/>
+      <c r="A220" s="70"/>
       <c r="B220" s="19"/>
       <c r="C220" s="26"/>
       <c r="D220" s="19"/>
@@ -8203,7 +8203,7 @@
       <c r="T220" s="19"/>
     </row>
     <row r="221" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="78"/>
+      <c r="A221" s="70"/>
       <c r="B221" s="19"/>
       <c r="C221" s="26"/>
       <c r="D221" s="19"/>
@@ -8225,7 +8225,7 @@
       <c r="T221" s="19"/>
     </row>
     <row r="222" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="78"/>
+      <c r="A222" s="70"/>
       <c r="B222" s="19"/>
       <c r="C222" s="26"/>
       <c r="D222" s="19"/>
@@ -8247,7 +8247,7 @@
       <c r="T222" s="19"/>
     </row>
     <row r="223" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="78"/>
+      <c r="A223" s="70"/>
       <c r="B223" s="19"/>
       <c r="C223" s="26"/>
       <c r="D223" s="19"/>
@@ -8269,7 +8269,7 @@
       <c r="T223" s="19"/>
     </row>
     <row r="224" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="78"/>
+      <c r="A224" s="70"/>
       <c r="B224" s="19"/>
       <c r="C224" s="26"/>
       <c r="D224" s="19"/>
@@ -8291,7 +8291,7 @@
       <c r="T224" s="19"/>
     </row>
     <row r="225" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="78"/>
+      <c r="A225" s="70"/>
       <c r="B225" s="19"/>
       <c r="C225" s="26"/>
       <c r="D225" s="19"/>
@@ -8313,7 +8313,7 @@
       <c r="T225" s="19"/>
     </row>
     <row r="226" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="78"/>
+      <c r="A226" s="70"/>
       <c r="B226" s="19"/>
       <c r="C226" s="26"/>
       <c r="D226" s="19"/>
@@ -8335,7 +8335,7 @@
       <c r="T226" s="19"/>
     </row>
     <row r="227" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="78"/>
+      <c r="A227" s="70"/>
       <c r="B227" s="19"/>
       <c r="C227" s="26"/>
       <c r="D227" s="19"/>
@@ -8357,7 +8357,7 @@
       <c r="T227" s="19"/>
     </row>
     <row r="228" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="78"/>
+      <c r="A228" s="70"/>
       <c r="B228" s="19"/>
       <c r="C228" s="26"/>
       <c r="D228" s="19"/>
@@ -8379,7 +8379,7 @@
       <c r="T228" s="19"/>
     </row>
     <row r="229" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="78"/>
+      <c r="A229" s="70"/>
       <c r="B229" s="19"/>
       <c r="C229" s="26"/>
       <c r="D229" s="19"/>
@@ -8401,7 +8401,7 @@
       <c r="T229" s="19"/>
     </row>
     <row r="230" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="78"/>
+      <c r="A230" s="70"/>
       <c r="B230" s="19"/>
       <c r="C230" s="26"/>
       <c r="D230" s="19"/>
@@ -8423,7 +8423,7 @@
       <c r="T230" s="19"/>
     </row>
     <row r="231" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="78"/>
+      <c r="A231" s="70"/>
       <c r="B231" s="19"/>
       <c r="C231" s="26"/>
       <c r="D231" s="19"/>
@@ -8445,7 +8445,7 @@
       <c r="T231" s="19"/>
     </row>
     <row r="232" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="78"/>
+      <c r="A232" s="70"/>
       <c r="B232" s="19"/>
       <c r="C232" s="26"/>
       <c r="D232" s="19"/>
@@ -8467,7 +8467,7 @@
       <c r="T232" s="19"/>
     </row>
     <row r="233" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="78"/>
+      <c r="A233" s="70"/>
       <c r="B233" s="19"/>
       <c r="C233" s="48"/>
       <c r="D233" s="49"/>
@@ -8489,7 +8489,7 @@
       <c r="T233" s="49"/>
     </row>
     <row r="234" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="78"/>
+      <c r="A234" s="70"/>
       <c r="B234" s="19"/>
       <c r="C234" s="48"/>
       <c r="D234" s="49"/>
@@ -8511,7 +8511,7 @@
       <c r="T234" s="49"/>
     </row>
     <row r="235" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="78"/>
+      <c r="A235" s="70"/>
       <c r="B235" s="19"/>
       <c r="C235" s="48"/>
       <c r="D235" s="49"/>
@@ -8533,7 +8533,7 @@
       <c r="T235" s="49"/>
     </row>
     <row r="236" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="78"/>
+      <c r="A236" s="70"/>
       <c r="B236" s="19"/>
       <c r="C236" s="48"/>
       <c r="D236" s="49"/>
@@ -8555,7 +8555,7 @@
       <c r="T236" s="49"/>
     </row>
     <row r="237" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="78"/>
+      <c r="A237" s="70"/>
       <c r="B237" s="19"/>
       <c r="C237" s="48"/>
       <c r="D237" s="49"/>
@@ -8577,7 +8577,7 @@
       <c r="T237" s="49"/>
     </row>
     <row r="238" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="78"/>
+      <c r="A238" s="70"/>
       <c r="B238" s="19"/>
       <c r="C238" s="48"/>
       <c r="D238" s="49"/>
@@ -8599,7 +8599,7 @@
       <c r="T238" s="49"/>
     </row>
     <row r="239" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="78"/>
+      <c r="A239" s="70"/>
       <c r="B239" s="19"/>
       <c r="C239" s="48"/>
       <c r="D239" s="49"/>
@@ -8621,7 +8621,7 @@
       <c r="T239" s="49"/>
     </row>
     <row r="240" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="78"/>
+      <c r="A240" s="70"/>
       <c r="B240" s="19"/>
       <c r="C240" s="48"/>
       <c r="D240" s="49"/>
@@ -8643,7 +8643,7 @@
       <c r="T240" s="49"/>
     </row>
     <row r="241" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="78"/>
+      <c r="A241" s="70"/>
       <c r="B241" s="19"/>
       <c r="C241" s="48"/>
       <c r="D241" s="49"/>
@@ -8665,7 +8665,7 @@
       <c r="T241" s="49"/>
     </row>
     <row r="242" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="78"/>
+      <c r="A242" s="70"/>
       <c r="B242" s="19"/>
       <c r="C242" s="48"/>
       <c r="D242" s="49"/>
@@ -8687,7 +8687,7 @@
       <c r="T242" s="49"/>
     </row>
     <row r="243" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="78"/>
+      <c r="A243" s="70"/>
       <c r="B243" s="19"/>
       <c r="C243" s="48"/>
       <c r="D243" s="49"/>
@@ -8709,7 +8709,7 @@
       <c r="T243" s="49"/>
     </row>
     <row r="244" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="78"/>
+      <c r="A244" s="70"/>
       <c r="B244" s="19"/>
       <c r="C244" s="26"/>
       <c r="D244" s="19"/>
@@ -8731,7 +8731,7 @@
       <c r="T244" s="19"/>
     </row>
     <row r="245" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="78"/>
+      <c r="A245" s="70"/>
       <c r="B245" s="19"/>
       <c r="C245" s="26"/>
       <c r="D245" s="19"/>
@@ -8753,7 +8753,7 @@
       <c r="T245" s="19"/>
     </row>
     <row r="246" spans="1:20" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="78"/>
+      <c r="A246" s="70"/>
       <c r="B246" s="19"/>
       <c r="C246" s="26"/>
       <c r="D246" s="19"/>
@@ -8775,7 +8775,7 @@
       <c r="T246" s="19"/>
     </row>
     <row r="247" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="78"/>
+      <c r="A247" s="70"/>
       <c r="B247" s="51"/>
       <c r="C247" s="52"/>
       <c r="D247" s="51"/>
@@ -8797,7 +8797,7 @@
       <c r="T247" s="51"/>
     </row>
     <row r="248" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="78"/>
+      <c r="A248" s="70"/>
       <c r="B248" s="51"/>
       <c r="C248" s="52"/>
       <c r="D248" s="51"/>
@@ -8819,7 +8819,7 @@
       <c r="T248" s="51"/>
     </row>
     <row r="249" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="78"/>
+      <c r="A249" s="70"/>
       <c r="B249" s="51"/>
       <c r="C249" s="52"/>
       <c r="D249" s="51"/>
@@ -8841,7 +8841,7 @@
       <c r="T249" s="51"/>
     </row>
     <row r="250" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="78"/>
+      <c r="A250" s="70"/>
       <c r="B250" s="51"/>
       <c r="C250" s="52"/>
       <c r="D250" s="51"/>
@@ -8863,7 +8863,7 @@
       <c r="T250" s="51"/>
     </row>
     <row r="251" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="78"/>
+      <c r="A251" s="70"/>
       <c r="B251" s="51"/>
       <c r="C251" s="52"/>
       <c r="D251" s="51"/>
@@ -8885,7 +8885,7 @@
       <c r="T251" s="51"/>
     </row>
     <row r="252" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="78"/>
+      <c r="A252" s="70"/>
       <c r="B252" s="51"/>
       <c r="C252" s="52"/>
       <c r="D252" s="51"/>
@@ -8907,7 +8907,7 @@
       <c r="T252" s="51"/>
     </row>
     <row r="253" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="78"/>
+      <c r="A253" s="70"/>
       <c r="B253" s="51"/>
       <c r="C253" s="52"/>
       <c r="D253" s="51"/>
@@ -8929,7 +8929,7 @@
       <c r="T253" s="51"/>
     </row>
     <row r="254" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="78"/>
+      <c r="A254" s="70"/>
       <c r="B254" s="51"/>
       <c r="C254" s="52"/>
       <c r="D254" s="51"/>
@@ -8951,7 +8951,7 @@
       <c r="T254" s="51"/>
     </row>
     <row r="255" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="78"/>
+      <c r="A255" s="70"/>
       <c r="B255" s="51"/>
       <c r="C255" s="52"/>
       <c r="D255" s="51"/>
@@ -8973,7 +8973,7 @@
       <c r="T255" s="51"/>
     </row>
     <row r="256" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="78"/>
+      <c r="A256" s="70"/>
       <c r="B256" s="51"/>
       <c r="C256" s="52"/>
       <c r="D256" s="51"/>
@@ -8995,7 +8995,7 @@
       <c r="T256" s="51"/>
     </row>
     <row r="257" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="78"/>
+      <c r="A257" s="70"/>
       <c r="B257" s="51"/>
       <c r="C257" s="52"/>
       <c r="D257" s="51"/>
@@ -9017,7 +9017,7 @@
       <c r="T257" s="51"/>
     </row>
     <row r="258" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="78"/>
+      <c r="A258" s="70"/>
       <c r="B258" s="51"/>
       <c r="C258" s="52"/>
       <c r="D258" s="51"/>
@@ -9039,7 +9039,7 @@
       <c r="T258" s="51"/>
     </row>
     <row r="259" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="78"/>
+      <c r="A259" s="70"/>
       <c r="B259" s="51"/>
       <c r="C259" s="52"/>
       <c r="D259" s="51"/>
@@ -9061,7 +9061,7 @@
       <c r="T259" s="51"/>
     </row>
     <row r="260" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="78"/>
+      <c r="A260" s="70"/>
       <c r="B260" s="51"/>
       <c r="C260" s="52"/>
       <c r="D260" s="51"/>
@@ -9083,7 +9083,7 @@
       <c r="T260" s="51"/>
     </row>
     <row r="261" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="78"/>
+      <c r="A261" s="70"/>
       <c r="B261" s="51"/>
       <c r="C261" s="52"/>
       <c r="D261" s="51"/>
@@ -9105,7 +9105,7 @@
       <c r="T261" s="51"/>
     </row>
     <row r="262" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="78"/>
+      <c r="A262" s="70"/>
       <c r="B262" s="51"/>
       <c r="C262" s="52"/>
       <c r="D262" s="51"/>
@@ -9127,7 +9127,7 @@
       <c r="T262" s="51"/>
     </row>
     <row r="263" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="78"/>
+      <c r="A263" s="70"/>
       <c r="B263" s="51"/>
       <c r="C263" s="52"/>
       <c r="D263" s="51"/>
@@ -9149,7 +9149,7 @@
       <c r="T263" s="51"/>
     </row>
     <row r="264" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="78"/>
+      <c r="A264" s="70"/>
       <c r="B264" s="51"/>
       <c r="C264" s="52"/>
       <c r="D264" s="51"/>
@@ -9171,7 +9171,7 @@
       <c r="T264" s="51"/>
     </row>
     <row r="265" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="78"/>
+      <c r="A265" s="70"/>
       <c r="B265" s="51"/>
       <c r="C265" s="52"/>
       <c r="D265" s="51"/>
@@ -9193,7 +9193,7 @@
       <c r="T265" s="51"/>
     </row>
     <row r="266" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="78"/>
+      <c r="A266" s="70"/>
       <c r="B266" s="51"/>
       <c r="C266" s="52"/>
       <c r="D266" s="51"/>
@@ -9215,7 +9215,7 @@
       <c r="T266" s="51"/>
     </row>
     <row r="267" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="78"/>
+      <c r="A267" s="70"/>
       <c r="B267" s="51"/>
       <c r="C267" s="52"/>
       <c r="D267" s="51"/>
@@ -9237,7 +9237,7 @@
       <c r="T267" s="51"/>
     </row>
     <row r="268" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="78"/>
+      <c r="A268" s="70"/>
       <c r="B268" s="51"/>
       <c r="C268" s="52"/>
       <c r="D268" s="51"/>
@@ -9259,7 +9259,7 @@
       <c r="T268" s="51"/>
     </row>
     <row r="269" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="78"/>
+      <c r="A269" s="70"/>
       <c r="B269" s="51"/>
       <c r="C269" s="52"/>
       <c r="D269" s="51"/>
@@ -9281,7 +9281,7 @@
       <c r="T269" s="51"/>
     </row>
     <row r="270" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="78"/>
+      <c r="A270" s="70"/>
       <c r="B270" s="51"/>
       <c r="C270" s="52"/>
       <c r="D270" s="51"/>
@@ -9303,7 +9303,7 @@
       <c r="T270" s="51"/>
     </row>
     <row r="271" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="78"/>
+      <c r="A271" s="70"/>
       <c r="B271" s="51"/>
       <c r="C271" s="52"/>
       <c r="D271" s="51"/>
@@ -9325,7 +9325,7 @@
       <c r="T271" s="51"/>
     </row>
     <row r="272" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="78"/>
+      <c r="A272" s="70"/>
       <c r="B272" s="51"/>
       <c r="C272" s="52"/>
       <c r="D272" s="51"/>
@@ -9347,7 +9347,7 @@
       <c r="T272" s="51"/>
     </row>
     <row r="273" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="78"/>
+      <c r="A273" s="70"/>
       <c r="B273" s="51"/>
       <c r="C273" s="52"/>
       <c r="D273" s="51"/>
@@ -9369,7 +9369,7 @@
       <c r="T273" s="51"/>
     </row>
     <row r="274" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="78"/>
+      <c r="A274" s="70"/>
       <c r="B274" s="51"/>
       <c r="C274" s="52"/>
       <c r="D274" s="51"/>
@@ -9391,7 +9391,7 @@
       <c r="T274" s="51"/>
     </row>
     <row r="275" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="78"/>
+      <c r="A275" s="70"/>
       <c r="B275" s="51"/>
       <c r="C275" s="52"/>
       <c r="D275" s="51"/>
@@ -9413,7 +9413,7 @@
       <c r="T275" s="51"/>
     </row>
     <row r="276" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="78"/>
+      <c r="A276" s="70"/>
       <c r="B276" s="51"/>
       <c r="C276" s="52"/>
       <c r="D276" s="51"/>
@@ -9435,7 +9435,7 @@
       <c r="T276" s="51"/>
     </row>
     <row r="277" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="78"/>
+      <c r="A277" s="70"/>
       <c r="B277" s="51"/>
       <c r="C277" s="52"/>
       <c r="D277" s="51"/>
@@ -9457,7 +9457,7 @@
       <c r="T277" s="51"/>
     </row>
     <row r="278" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="78"/>
+      <c r="A278" s="70"/>
       <c r="B278" s="51"/>
       <c r="C278" s="52"/>
       <c r="D278" s="51"/>
@@ -9479,7 +9479,7 @@
       <c r="T278" s="51"/>
     </row>
     <row r="279" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="78"/>
+      <c r="A279" s="70"/>
       <c r="B279" s="51"/>
       <c r="C279" s="52"/>
       <c r="D279" s="51"/>
@@ -9501,7 +9501,7 @@
       <c r="T279" s="51"/>
     </row>
     <row r="280" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="78"/>
+      <c r="A280" s="70"/>
       <c r="B280" s="51"/>
       <c r="C280" s="52"/>
       <c r="D280" s="51"/>
@@ -9523,7 +9523,7 @@
       <c r="T280" s="51"/>
     </row>
     <row r="281" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="78"/>
+      <c r="A281" s="70"/>
       <c r="B281" s="51"/>
       <c r="C281" s="52"/>
       <c r="D281" s="51"/>
@@ -9545,7 +9545,7 @@
       <c r="T281" s="51"/>
     </row>
     <row r="282" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="78"/>
+      <c r="A282" s="70"/>
       <c r="B282" s="51"/>
       <c r="C282" s="52"/>
       <c r="D282" s="51"/>
@@ -9567,7 +9567,7 @@
       <c r="T282" s="51"/>
     </row>
     <row r="283" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="78"/>
+      <c r="A283" s="70"/>
       <c r="B283" s="51"/>
       <c r="C283" s="52"/>
       <c r="D283" s="51"/>
@@ -9589,7 +9589,7 @@
       <c r="T283" s="51"/>
     </row>
     <row r="284" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="78"/>
+      <c r="A284" s="70"/>
       <c r="B284" s="51"/>
       <c r="C284" s="52"/>
       <c r="D284" s="51"/>
@@ -9611,7 +9611,7 @@
       <c r="T284" s="51"/>
     </row>
     <row r="285" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="78"/>
+      <c r="A285" s="70"/>
       <c r="B285" s="51"/>
       <c r="C285" s="52"/>
       <c r="D285" s="51"/>
@@ -9633,7 +9633,7 @@
       <c r="T285" s="51"/>
     </row>
     <row r="286" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="78"/>
+      <c r="A286" s="70"/>
       <c r="B286" s="51"/>
       <c r="C286" s="52"/>
       <c r="D286" s="51"/>
@@ -9655,7 +9655,7 @@
       <c r="T286" s="51"/>
     </row>
     <row r="287" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="78"/>
+      <c r="A287" s="70"/>
       <c r="B287" s="51"/>
       <c r="C287" s="52"/>
       <c r="D287" s="51"/>
@@ -9677,7 +9677,7 @@
       <c r="T287" s="51"/>
     </row>
     <row r="288" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="78"/>
+      <c r="A288" s="70"/>
       <c r="B288" s="51"/>
       <c r="C288" s="52"/>
       <c r="D288" s="51"/>
@@ -9699,7 +9699,7 @@
       <c r="T288" s="51"/>
     </row>
     <row r="289" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="78"/>
+      <c r="A289" s="70"/>
       <c r="B289" s="51"/>
       <c r="C289" s="52"/>
       <c r="D289" s="51"/>
@@ -9721,7 +9721,7 @@
       <c r="T289" s="51"/>
     </row>
     <row r="290" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="78"/>
+      <c r="A290" s="70"/>
       <c r="B290" s="51"/>
       <c r="C290" s="52"/>
       <c r="D290" s="51"/>
@@ -9743,7 +9743,7 @@
       <c r="T290" s="51"/>
     </row>
     <row r="291" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="78"/>
+      <c r="A291" s="70"/>
       <c r="B291" s="51"/>
       <c r="C291" s="52"/>
       <c r="D291" s="51"/>
@@ -9765,7 +9765,7 @@
       <c r="T291" s="51"/>
     </row>
     <row r="292" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="78"/>
+      <c r="A292" s="70"/>
       <c r="B292" s="51"/>
       <c r="C292" s="52"/>
       <c r="D292" s="51"/>
@@ -9787,7 +9787,7 @@
       <c r="T292" s="51"/>
     </row>
     <row r="293" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="78"/>
+      <c r="A293" s="70"/>
       <c r="B293" s="51"/>
       <c r="C293" s="52"/>
       <c r="D293" s="51"/>
@@ -9809,7 +9809,7 @@
       <c r="T293" s="51"/>
     </row>
     <row r="294" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="78"/>
+      <c r="A294" s="70"/>
       <c r="B294" s="51"/>
       <c r="C294" s="52"/>
       <c r="D294" s="51"/>
@@ -9831,7 +9831,7 @@
       <c r="T294" s="51"/>
     </row>
     <row r="295" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="78"/>
+      <c r="A295" s="70"/>
       <c r="B295" s="51"/>
       <c r="C295" s="52"/>
       <c r="D295" s="51"/>
@@ -9853,7 +9853,7 @@
       <c r="T295" s="51"/>
     </row>
     <row r="296" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="78"/>
+      <c r="A296" s="70"/>
       <c r="B296" s="51"/>
       <c r="C296" s="52"/>
       <c r="D296" s="51"/>
@@ -9875,7 +9875,7 @@
       <c r="T296" s="51"/>
     </row>
     <row r="297" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="78"/>
+      <c r="A297" s="70"/>
       <c r="B297" s="51"/>
       <c r="C297" s="52"/>
       <c r="D297" s="51"/>
@@ -9897,7 +9897,7 @@
       <c r="T297" s="51"/>
     </row>
     <row r="298" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="78"/>
+      <c r="A298" s="70"/>
       <c r="B298" s="51"/>
       <c r="C298" s="52"/>
       <c r="D298" s="51"/>
@@ -9919,7 +9919,7 @@
       <c r="T298" s="51"/>
     </row>
     <row r="299" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="78"/>
+      <c r="A299" s="70"/>
       <c r="B299" s="51"/>
       <c r="C299" s="52"/>
       <c r="D299" s="51"/>
@@ -9941,7 +9941,7 @@
       <c r="T299" s="51"/>
     </row>
     <row r="300" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="78"/>
+      <c r="A300" s="70"/>
       <c r="B300" s="51"/>
       <c r="C300" s="52"/>
       <c r="D300" s="51"/>
@@ -9963,7 +9963,7 @@
       <c r="T300" s="51"/>
     </row>
     <row r="301" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="78"/>
+      <c r="A301" s="70"/>
       <c r="B301" s="51"/>
       <c r="C301" s="52"/>
       <c r="D301" s="51"/>
@@ -9985,7 +9985,7 @@
       <c r="T301" s="51"/>
     </row>
     <row r="302" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="78"/>
+      <c r="A302" s="70"/>
       <c r="B302" s="51"/>
       <c r="C302" s="52"/>
       <c r="D302" s="51"/>
@@ -10007,7 +10007,7 @@
       <c r="T302" s="51"/>
     </row>
     <row r="303" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="78"/>
+      <c r="A303" s="70"/>
       <c r="B303" s="51"/>
       <c r="C303" s="52"/>
       <c r="D303" s="51"/>
@@ -10029,7 +10029,7 @@
       <c r="T303" s="51"/>
     </row>
     <row r="304" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="78"/>
+      <c r="A304" s="70"/>
       <c r="B304" s="51"/>
       <c r="C304" s="52"/>
       <c r="D304" s="51"/>
@@ -10051,7 +10051,7 @@
       <c r="T304" s="51"/>
     </row>
     <row r="305" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="78"/>
+      <c r="A305" s="70"/>
       <c r="B305" s="51"/>
       <c r="C305" s="52"/>
       <c r="D305" s="51"/>
@@ -10073,7 +10073,7 @@
       <c r="T305" s="51"/>
     </row>
     <row r="306" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="78"/>
+      <c r="A306" s="70"/>
       <c r="B306" s="51"/>
       <c r="C306" s="52"/>
       <c r="D306" s="51"/>
@@ -10095,7 +10095,7 @@
       <c r="T306" s="51"/>
     </row>
     <row r="307" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="78"/>
+      <c r="A307" s="70"/>
       <c r="B307" s="51"/>
       <c r="C307" s="52"/>
       <c r="D307" s="51"/>
@@ -10117,7 +10117,7 @@
       <c r="T307" s="51"/>
     </row>
     <row r="308" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="78"/>
+      <c r="A308" s="70"/>
       <c r="B308" s="51"/>
       <c r="C308" s="52"/>
       <c r="D308" s="51"/>
@@ -10139,7 +10139,7 @@
       <c r="T308" s="51"/>
     </row>
     <row r="309" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="78"/>
+      <c r="A309" s="70"/>
       <c r="B309" s="51"/>
       <c r="C309" s="52"/>
       <c r="D309" s="51"/>
@@ -10161,7 +10161,7 @@
       <c r="T309" s="51"/>
     </row>
     <row r="310" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="78"/>
+      <c r="A310" s="70"/>
       <c r="B310" s="51"/>
       <c r="C310" s="52"/>
       <c r="D310" s="51"/>
@@ -10183,7 +10183,7 @@
       <c r="T310" s="51"/>
     </row>
     <row r="311" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="78"/>
+      <c r="A311" s="70"/>
       <c r="B311" s="51"/>
       <c r="C311" s="52"/>
       <c r="D311" s="51"/>
@@ -10205,7 +10205,7 @@
       <c r="T311" s="51"/>
     </row>
     <row r="312" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A312" s="78"/>
+      <c r="A312" s="70"/>
       <c r="B312" s="51"/>
       <c r="C312" s="52"/>
       <c r="D312" s="51"/>
@@ -10227,7 +10227,7 @@
       <c r="T312" s="51"/>
     </row>
     <row r="313" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="78"/>
+      <c r="A313" s="70"/>
       <c r="B313" s="51"/>
       <c r="C313" s="52"/>
       <c r="D313" s="51"/>
@@ -10249,7 +10249,7 @@
       <c r="T313" s="51"/>
     </row>
     <row r="314" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="78"/>
+      <c r="A314" s="70"/>
       <c r="B314" s="51"/>
       <c r="C314" s="52"/>
       <c r="D314" s="51"/>
@@ -10271,7 +10271,7 @@
       <c r="T314" s="51"/>
     </row>
     <row r="315" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="78"/>
+      <c r="A315" s="70"/>
       <c r="B315" s="51"/>
       <c r="C315" s="52"/>
       <c r="D315" s="51"/>
@@ -10293,7 +10293,7 @@
       <c r="T315" s="51"/>
     </row>
     <row r="316" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="78"/>
+      <c r="A316" s="70"/>
       <c r="B316" s="51"/>
       <c r="C316" s="52"/>
       <c r="D316" s="51"/>
@@ -10315,7 +10315,7 @@
       <c r="T316" s="51"/>
     </row>
     <row r="317" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="78"/>
+      <c r="A317" s="70"/>
       <c r="B317" s="51"/>
       <c r="C317" s="52"/>
       <c r="D317" s="51"/>
@@ -10337,7 +10337,7 @@
       <c r="T317" s="51"/>
     </row>
     <row r="318" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="78"/>
+      <c r="A318" s="70"/>
       <c r="B318" s="51"/>
       <c r="C318" s="52"/>
       <c r="D318" s="51"/>
@@ -10359,7 +10359,7 @@
       <c r="T318" s="51"/>
     </row>
     <row r="319" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="78"/>
+      <c r="A319" s="70"/>
       <c r="B319" s="51"/>
       <c r="C319" s="52"/>
       <c r="D319" s="51"/>
@@ -10381,7 +10381,7 @@
       <c r="T319" s="51"/>
     </row>
     <row r="320" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="78"/>
+      <c r="A320" s="70"/>
       <c r="B320" s="51"/>
       <c r="C320" s="52"/>
       <c r="D320" s="51"/>
@@ -10403,7 +10403,7 @@
       <c r="T320" s="51"/>
     </row>
     <row r="321" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="78"/>
+      <c r="A321" s="70"/>
       <c r="B321" s="51"/>
       <c r="C321" s="52"/>
       <c r="D321" s="51"/>
@@ -10425,7 +10425,7 @@
       <c r="T321" s="51"/>
     </row>
     <row r="322" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="78"/>
+      <c r="A322" s="70"/>
       <c r="B322" s="51"/>
       <c r="C322" s="52"/>
       <c r="D322" s="51"/>
@@ -10447,7 +10447,7 @@
       <c r="T322" s="51"/>
     </row>
     <row r="323" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="78"/>
+      <c r="A323" s="70"/>
       <c r="B323" s="51"/>
       <c r="C323" s="52"/>
       <c r="D323" s="51"/>
@@ -10469,7 +10469,7 @@
       <c r="T323" s="51"/>
     </row>
     <row r="324" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="78"/>
+      <c r="A324" s="70"/>
       <c r="B324" s="51"/>
       <c r="C324" s="52"/>
       <c r="D324" s="51"/>
@@ -10491,7 +10491,7 @@
       <c r="T324" s="51"/>
     </row>
     <row r="325" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="78"/>
+      <c r="A325" s="70"/>
       <c r="B325" s="51"/>
       <c r="C325" s="52"/>
       <c r="D325" s="51"/>
@@ -10515,6 +10515,11 @@
   </sheetData>
   <autoFilter ref="A4:T4" xr:uid="{0984FCF3-48E3-40AC-8CEE-FB1A4521A6AB}"/>
   <mergeCells count="14">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="L2:L3"/>
@@ -10524,11 +10529,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">

--- a/Internal Materials Fitting Issue Log (Construction Issue).xlsx
+++ b/Internal Materials Fitting Issue Log (Construction Issue).xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\shadab\JAFURAPHASEII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\shadab\JAFURAPHASEII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A11B34-F585-4DCE-B7D6-B34BEB82F79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961AD59E-A84E-49FF-A181-AEBDA58E9E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01214435-74F5-40DF-8F81-020807ECED6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$T$4</definedName>
   </definedNames>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="74">
   <si>
     <t>SL. No.</t>
   </si>
@@ -768,22 +765,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,6 +785,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,878 +821,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Flange+Fitting+Gasket+Nut bolt"/>
-      <sheetName val="Blank Folder"/>
-      <sheetName val="Valves Materials Bookeed "/>
-      <sheetName val="Pivot"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="M1">
-            <v>23</v>
-          </cell>
-          <cell r="N1">
-            <v>23</v>
-          </cell>
-          <cell r="O1">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>S#</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Moudle</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Issued Date</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Silp No</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>DS No.</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v xml:space="preserve">Collection Status </v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>Area</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>ISO No</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>Rev.</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>Heat No.</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>Mat Code</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>BM (ea)</v>
-          </cell>
-          <cell r="N2" t="str">
-            <v>Booked (ea)</v>
-          </cell>
-          <cell r="O2" t="str">
-            <v>Rcv'dQty (ea)</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>Item</v>
-          </cell>
-          <cell r="Q2" t="str">
-            <v>Material Types</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>A863-2_SB_LPS-24308-099-M212915447</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D5">
-            <v>45974</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>P202510140004</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>JF-DS-P2-00318</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>A863-2</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>A863-2_SB_LPS-24308-099</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>A0</v>
-          </cell>
-          <cell r="L5" t="str">
-            <v>M212915447</v>
-          </cell>
-          <cell r="M5">
-            <v>2</v>
-          </cell>
-          <cell r="N5">
-            <v>2</v>
-          </cell>
-          <cell r="O5">
-            <v>2</v>
-          </cell>
-          <cell r="P5" t="str">
-            <v>GATE VA LP</v>
-          </cell>
-          <cell r="Q5" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>S870-1_SB_LPS-24262-099-M367335617</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D6">
-            <v>45973</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>P202511080008</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>JF-DS-P2-00358</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>S870-1</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>S870-1_SB_LPS-24262-099</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>D0</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>J24002/78/1/99/14,J24002/78/1/99/3</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>M367335617</v>
-          </cell>
-          <cell r="M6">
-            <v>2</v>
-          </cell>
-          <cell r="N6">
-            <v>2</v>
-          </cell>
-          <cell r="O6">
-            <v>2</v>
-          </cell>
-          <cell r="P6" t="str">
-            <v>GATE VA LP</v>
-          </cell>
-          <cell r="Q6" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>A863-2_SB_LPC-24311-099-M212915447</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D7">
-            <v>45976</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>P202511110003</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>JF-DS-P2-00359</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>A863-2</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>A863-2_SB_LPC-24311-099</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>A0</v>
-          </cell>
-          <cell r="L7" t="str">
-            <v>M212915447</v>
-          </cell>
-          <cell r="M7">
-            <v>2</v>
-          </cell>
-          <cell r="N7">
-            <v>2</v>
-          </cell>
-          <cell r="O7">
-            <v>2</v>
-          </cell>
-          <cell r="P7" t="str">
-            <v>GATE VA LP</v>
-          </cell>
-          <cell r="Q7" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>A863-3B_SB_LPS-24320-099-M212915447</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D8">
-            <v>45976</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>P202511110003</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>JF-DS-P2-00359</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>A863-3B</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>A863-3B_SB_LPS-24320-099</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>A0</v>
-          </cell>
-          <cell r="L8" t="str">
-            <v>M212915447</v>
-          </cell>
-          <cell r="M8">
-            <v>2</v>
-          </cell>
-          <cell r="N8">
-            <v>2</v>
-          </cell>
-          <cell r="O8">
-            <v>2</v>
-          </cell>
-          <cell r="P8" t="str">
-            <v>GATE VA LP</v>
-          </cell>
-          <cell r="Q8" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>A870-1_SB_LPS-24259-099-M367335618</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D9">
-            <v>45973</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>P202511110003</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>JF-DS-P2-00359</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>A870-1</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>A870-1_SB_LPS-24259-099</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v>C1</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>J24002/78/2/154/10</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>M367335618</v>
-          </cell>
-          <cell r="M9">
-            <v>2</v>
-          </cell>
-          <cell r="N9">
-            <v>2</v>
-          </cell>
-          <cell r="O9">
-            <v>2</v>
-          </cell>
-          <cell r="P9" t="str">
-            <v>GATE VA LP</v>
-          </cell>
-          <cell r="Q9" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>A870-1_SB_N-24105-099-M229869532</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D10">
-            <v>45973</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>P202511110003</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>JF-DS-P2-00359</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>A870-1</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>A870-1_SB_N-24105-099</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>B0</v>
-          </cell>
-          <cell r="L10" t="str">
-            <v>M229869532</v>
-          </cell>
-          <cell r="M10">
-            <v>1</v>
-          </cell>
-          <cell r="N10">
-            <v>1</v>
-          </cell>
-          <cell r="O10">
-            <v>1</v>
-          </cell>
-          <cell r="P10" t="str">
-            <v>GATE VA SE</v>
-          </cell>
-          <cell r="Q10" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>A863-2_SB_N-24302-099-M238710449</v>
-          </cell>
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D11">
-            <v>45978</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>P202511120003</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>JF-DS-P2-00361</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>A863-2</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>A863-2_SB_N-24302-099</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v>A0</v>
-          </cell>
-          <cell r="K11" t="str">
-            <v>A62/249,A62/248</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>M238710449</v>
-          </cell>
-          <cell r="M11">
-            <v>2</v>
-          </cell>
-          <cell r="N11">
-            <v>2</v>
-          </cell>
-          <cell r="O11">
-            <v>2</v>
-          </cell>
-          <cell r="P11" t="str">
-            <v>BALL VA FLG LP</v>
-          </cell>
-          <cell r="Q11" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>A863-2_SB_N-24312-099-M238710447</v>
-          </cell>
-          <cell r="B12">
-            <v>8</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D12">
-            <v>45978</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>P202511120003</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>JF-DS-P2-00361</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>A863-2</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>A863-2_SB_N-24312-099</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>A0</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>A62/236,A62/224</v>
-          </cell>
-          <cell r="L12" t="str">
-            <v>M238710447</v>
-          </cell>
-          <cell r="M12">
-            <v>2</v>
-          </cell>
-          <cell r="N12">
-            <v>2</v>
-          </cell>
-          <cell r="O12">
-            <v>2</v>
-          </cell>
-          <cell r="P12" t="str">
-            <v>BALL VA FLG LP</v>
-          </cell>
-          <cell r="Q12" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>A863-2_SB_PA-24293-099-M238710447</v>
-          </cell>
-          <cell r="B13">
-            <v>9</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D13">
-            <v>45978</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>P202511120003</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>JF-DS-P2-00361</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>A863-2</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>A863-2_SB_PA-24293-099</v>
-          </cell>
-          <cell r="J13" t="str">
-            <v>A0</v>
-          </cell>
-          <cell r="K13" t="str">
-            <v>A62/234</v>
-          </cell>
-          <cell r="L13" t="str">
-            <v>M238710447</v>
-          </cell>
-          <cell r="M13">
-            <v>1</v>
-          </cell>
-          <cell r="N13">
-            <v>1</v>
-          </cell>
-          <cell r="O13">
-            <v>1</v>
-          </cell>
-          <cell r="P13" t="str">
-            <v>BALL VA FLG LP</v>
-          </cell>
-          <cell r="Q13" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>A863-3B_SB_N-25075-099-M238710447</v>
-          </cell>
-          <cell r="B14">
-            <v>10</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D14">
-            <v>45978</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>P202511120003</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>JF-DS-P2-00361</v>
-          </cell>
-          <cell r="G14" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>A863-3B</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>A863-3B_SB_N-25075-099</v>
-          </cell>
-          <cell r="J14" t="str">
-            <v>A0</v>
-          </cell>
-          <cell r="K14" t="str">
-            <v>A62/225,A62/223</v>
-          </cell>
-          <cell r="L14" t="str">
-            <v>M238710447</v>
-          </cell>
-          <cell r="M14">
-            <v>2</v>
-          </cell>
-          <cell r="N14">
-            <v>2</v>
-          </cell>
-          <cell r="O14">
-            <v>2</v>
-          </cell>
-          <cell r="P14" t="str">
-            <v>BALL VA FLG LP</v>
-          </cell>
-          <cell r="Q14" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>A863-3B_SB_PA-24002-099-M238710447</v>
-          </cell>
-          <cell r="B15">
-            <v>11</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D15">
-            <v>45978</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>P202511120003</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>JF-DS-P2-00361</v>
-          </cell>
-          <cell r="G15" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v>A863-3B</v>
-          </cell>
-          <cell r="I15" t="str">
-            <v>A863-3B_SB_PA-24002-099</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v>A0</v>
-          </cell>
-          <cell r="K15" t="str">
-            <v>A62/246</v>
-          </cell>
-          <cell r="L15" t="str">
-            <v>M238710447</v>
-          </cell>
-          <cell r="M15">
-            <v>1</v>
-          </cell>
-          <cell r="N15">
-            <v>1</v>
-          </cell>
-          <cell r="O15">
-            <v>1</v>
-          </cell>
-          <cell r="P15" t="str">
-            <v>BALL VA FLG LP</v>
-          </cell>
-          <cell r="Q15" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>A870-1_SB_N-24105-099-M238710447</v>
-          </cell>
-          <cell r="B16">
-            <v>12</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D16">
-            <v>45978</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>P202511120003</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>JF-DS-P2-00361</v>
-          </cell>
-          <cell r="G16" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H16" t="str">
-            <v>A870-1</v>
-          </cell>
-          <cell r="I16" t="str">
-            <v>A870-1_SB_N-24105-099</v>
-          </cell>
-          <cell r="J16" t="str">
-            <v>B0</v>
-          </cell>
-          <cell r="K16" t="str">
-            <v>A62/245</v>
-          </cell>
-          <cell r="L16" t="str">
-            <v>M238710447</v>
-          </cell>
-          <cell r="M16">
-            <v>1</v>
-          </cell>
-          <cell r="N16">
-            <v>1</v>
-          </cell>
-          <cell r="O16">
-            <v>1</v>
-          </cell>
-          <cell r="P16" t="str">
-            <v>BALL VA FLG LP</v>
-          </cell>
-          <cell r="Q16" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>S870-1_SB_N-24101-099-M238710447</v>
-          </cell>
-          <cell r="B17">
-            <v>13</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D17">
-            <v>45978</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>P202511120003</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>JF-DS-P2-00361</v>
-          </cell>
-          <cell r="G17" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H17" t="str">
-            <v>S870-1</v>
-          </cell>
-          <cell r="I17" t="str">
-            <v>S870-1_SB_N-24101-099</v>
-          </cell>
-          <cell r="J17" t="str">
-            <v>C0</v>
-          </cell>
-          <cell r="K17" t="str">
-            <v>A62/231</v>
-          </cell>
-          <cell r="L17" t="str">
-            <v>M238710447</v>
-          </cell>
-          <cell r="M17">
-            <v>1</v>
-          </cell>
-          <cell r="N17">
-            <v>1</v>
-          </cell>
-          <cell r="O17">
-            <v>1</v>
-          </cell>
-          <cell r="P17" t="str">
-            <v>BALL VA FLG LP</v>
-          </cell>
-          <cell r="Q17" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>S870-1_SB_N-24103-099-M238710447</v>
-          </cell>
-          <cell r="B18">
-            <v>14</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D18">
-            <v>45978</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>P202511120003</v>
-          </cell>
-          <cell r="F18" t="str">
-            <v>JF-DS-P2-00361</v>
-          </cell>
-          <cell r="G18" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H18" t="str">
-            <v>S870-1</v>
-          </cell>
-          <cell r="I18" t="str">
-            <v>S870-1_SB_N-24103-099</v>
-          </cell>
-          <cell r="J18" t="str">
-            <v>C0</v>
-          </cell>
-          <cell r="K18" t="str">
-            <v>A62/217</v>
-          </cell>
-          <cell r="L18" t="str">
-            <v>M238710447</v>
-          </cell>
-          <cell r="M18">
-            <v>1</v>
-          </cell>
-          <cell r="N18">
-            <v>1</v>
-          </cell>
-          <cell r="O18">
-            <v>1</v>
-          </cell>
-          <cell r="P18" t="str">
-            <v>BALL VA FLG LP</v>
-          </cell>
-          <cell r="Q18" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>S870-1_SB_N-24109-099-M238710447</v>
-          </cell>
-          <cell r="B19">
-            <v>15</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="D19">
-            <v>45978</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>P202511120003</v>
-          </cell>
-          <cell r="F19" t="str">
-            <v>JF-DS-P2-00361</v>
-          </cell>
-          <cell r="G19" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="H19" t="str">
-            <v>S870-1</v>
-          </cell>
-          <cell r="I19" t="str">
-            <v>S870-1_SB_N-24109-099</v>
-          </cell>
-          <cell r="J19" t="str">
-            <v>C0</v>
-          </cell>
-          <cell r="K19" t="str">
-            <v>A62/219</v>
-          </cell>
-          <cell r="L19" t="str">
-            <v>M238710447</v>
-          </cell>
-          <cell r="M19">
-            <v>1</v>
-          </cell>
-          <cell r="N19">
-            <v>1</v>
-          </cell>
-          <cell r="O19">
-            <v>1</v>
-          </cell>
-          <cell r="P19" t="str">
-            <v>BALL VA FLG LP</v>
-          </cell>
-          <cell r="Q19" t="str">
-            <v>CS</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2050,37 +1175,37 @@
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="86" t="s">
         <v>45</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -2092,29 +1217,29 @@
         <v>11</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="81" t="s">
+      <c r="R2" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="77" t="s">
+      <c r="S2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="77" t="s">
+      <c r="T2" s="79" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="68"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="11" t="s">
         <v>2</v>
       </c>
@@ -2130,9 +1255,9 @@
       <c r="Q3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="82"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="83"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
@@ -3136,9 +2261,8 @@
       <c r="I23" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="19" t="str">
-        <f>VLOOKUP(A23,'[1]Valves Materials Bookeed '!$A:$Q,17,0)</f>
-        <v>CS</v>
+      <c r="J23" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>40</v>
@@ -3296,9 +2420,8 @@
       <c r="I26" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="J26" s="19" t="str">
-        <f>VLOOKUP(A26,'[1]Valves Materials Bookeed '!$A:$Q,17,0)</f>
-        <v>CS</v>
+      <c r="J26" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="K26" s="71" t="s">
         <v>41</v>
@@ -3507,9 +2630,8 @@
       <c r="I30" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="19" t="str">
-        <f>VLOOKUP(A30,'[1]Valves Materials Bookeed '!$A:$Q,17,0)</f>
-        <v>CS</v>
+      <c r="J30" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="K30" s="71" t="s">
         <v>40</v>
@@ -10515,11 +9637,6 @@
   </sheetData>
   <autoFilter ref="A4:T4" xr:uid="{0984FCF3-48E3-40AC-8CEE-FB1A4521A6AB}"/>
   <mergeCells count="14">
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="L2:L3"/>
@@ -10529,6 +9646,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
